--- a/biology/Histoire de la zoologie et de la botanique/Pierre-Louis_Crouan/Pierre-Louis_Crouan.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Pierre-Louis_Crouan/Pierre-Louis_Crouan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pierre-Louis Crouan, né à Brest le 27 avril 1798 et mort dans la même ville le 19 novembre 1871, est un botaniste français.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre-Louis Crouan est le fils d'Étienne-Florent Crouan, fournisseur de la marine, qui était connu à Brest au moment de la révolution sous le nom de Crouan-Chandelle, le frère de Hippolyte-Marie Crouan, avec qui il collabora toute sa vie durant, et le cousin germain de l'armateur nantais René-Denis Crouan (1806-1891)[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre-Louis Crouan est le fils d'Étienne-Florent Crouan, fournisseur de la marine, qui était connu à Brest au moment de la révolution sous le nom de Crouan-Chandelle, le frère de Hippolyte-Marie Crouan, avec qui il collabora toute sa vie durant, et le cousin germain de l'armateur nantais René-Denis Crouan (1806-1891),.
 Il est reçu pharmacien en 1817, et s'installe à Rouen.
 Les deux frères s'installent dans leur ville d'origine, en 1829, 6 rue de la Fraternité, devenue depuis rue d'Orléans puis rue Étienne Dolet. Passionnés de botanique, ils herborisent, s'intéressent aussi aux champignons et publient dans les revues scientifiques de l'époque.
 À partir de 1833, leurs communications scientifiques se succèdent dans les Archives de Botanique, les Annales des Sciences Naturelles ou le Bulletin de la Société Botanique de France. Ils correspondent alors avec les meilleurs spécialistes des algues d'Europe.
@@ -550,7 +564,9 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Deux genres ont été nommés Crouania en leur hommage : 
 un genre d'algues : Crouania J.Agardh, 1842,
